--- a/Fighting Lion Club Notes.xlsx
+++ b/Fighting Lion Club Notes.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtmon\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtmon\iCloudDrive\fighting-lion-club\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DA023C-3918-4F3C-B801-06A68EBA393A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263A1EBE-22CA-4ED7-8DB5-DDC5ED9B8F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D2AF7772-B9F8-4918-951F-717FB2EC9AC0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{D2AF7772-B9F8-4918-951F-717FB2EC9AC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="reaload" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="84">
   <si>
     <t>no reserves</t>
   </si>
@@ -232,6 +233,60 @@
   </si>
   <si>
     <t>Titan with Armor of Light</t>
+  </si>
+  <si>
+    <t>R value</t>
+  </si>
+  <si>
+    <t>No Masterwork</t>
+  </si>
+  <si>
+    <t>Masterwork</t>
+  </si>
+  <si>
+    <t>Masterwork, 1x Loader</t>
+  </si>
+  <si>
+    <t>Dragon's Shadow</t>
+  </si>
+  <si>
+    <t>Dragon's Shadow, 1x Loader</t>
+  </si>
+  <si>
+    <t>Ophidian aspect</t>
+  </si>
+  <si>
+    <t>Ophidian aspect, 1x Loader</t>
+  </si>
+  <si>
+    <t>Lunafaction Rift/Rally Barricade</t>
+  </si>
+  <si>
+    <t>Lunafaction Rift/Rally Barricade, 1x loader</t>
+  </si>
+  <si>
+    <t>Masterwork, 2x Loader</t>
+  </si>
+  <si>
+    <t>2x Loaders</t>
+  </si>
+  <si>
+    <t>1x Loader</t>
+  </si>
+  <si>
+    <t>Ophidian Aspect</t>
+  </si>
+  <si>
+    <t>Lunafaction Well</t>
+  </si>
+  <si>
+    <t>Rally Barricade</t>
+  </si>
+  <si>
+    <t>Pre-Nerf</t>
+  </si>
+  <si>
+    <t>Post-Nerf</t>
   </si>
 </sst>
 </file>
@@ -314,7 +369,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -337,6 +392,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -654,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91BBA8DE-3BEA-410F-964A-00C51405BAC2}">
   <dimension ref="A4:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K57" sqref="K57"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1757,4 +1813,338 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0416AC-0BDD-4988-B94D-B887E18374C1}">
+  <dimension ref="A7:D34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7">
+        <v>55</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9">
+        <v>27</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12">
+        <v>32</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13">
+        <v>100</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14">
+        <v>100</v>
+      </c>
+      <c r="C14">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="C15">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20">
+        <f>B7</f>
+        <v>55</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="18">
+        <f>(0.00268222*(B20^2) - (0.775084*B20) + 104.714)*C20/30</f>
+        <v>2.3399365166666666</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21">
+        <f>B7+B9</f>
+        <v>82</v>
+      </c>
+      <c r="C21">
+        <f>C7</f>
+        <v>1</v>
+      </c>
+      <c r="D21" s="18">
+        <f>(0.00268222*(B21^2) - (0.775084*B21) + 104.714)*C21/30</f>
+        <v>1.9730786426666667</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22">
+        <f>B21+B10</f>
+        <v>92</v>
+      </c>
+      <c r="C22">
+        <f>C10</f>
+        <v>0.85</v>
+      </c>
+      <c r="D22" s="18">
+        <f>(0.00268222*(B22^2) - (0.775084*B22) + 104.714)*C22/30</f>
+        <v>1.5897431589333335</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <f>B8</f>
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <f>C20</f>
+        <v>1</v>
+      </c>
+      <c r="D24" s="18">
+        <f>(0.00268222*(B24^2) - (0.775084*B24) + 104.714)*C24/30</f>
+        <v>3.2410460666666667</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25">
+        <f>B8+B9</f>
+        <v>37</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ref="C25:C27" si="0">C21</f>
+        <v>1</v>
+      </c>
+      <c r="D25" s="18">
+        <f>(0.00268222*(B25^2) - (0.775084*B25) + 104.714)*C25/30</f>
+        <v>2.656928372666667</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26">
+        <f>SUM(B8,B9,B10)</f>
+        <v>47</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>0.85</v>
+      </c>
+      <c r="D26" s="18">
+        <f>(0.00268222*(B26^2) - (0.775084*B26) + 104.714)*C26/30</f>
+        <v>2.1026188194333333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27">
+        <f>B25+B11</f>
+        <v>52</v>
+      </c>
+      <c r="C27">
+        <v>0.85</v>
+      </c>
+      <c r="D27" s="18">
+        <f>(0.00268222*(B27^2) - (0.775084*B27) + 104.714)*C27/30</f>
+        <v>2.0304333882666667</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29">
+        <v>100</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="18">
+        <f>(0.00268222*(B29^2) - (0.775084*B29) + 104.714)*C29/30</f>
+        <v>1.8009266666666666</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30">
+        <v>100</v>
+      </c>
+      <c r="C30">
+        <v>0.85</v>
+      </c>
+      <c r="D30" s="18">
+        <f t="shared" ref="D30:D31" si="1">(0.00268222*(B30^2) - (0.775084*B30) + 104.714)*C30/30</f>
+        <v>1.5307876666666664</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31">
+        <f>SUM(B8,B9,B12)</f>
+        <v>69</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" s="18">
+        <f>(0.00268222*(B31^2) - (0.775084*B31) + 104.714)*C31/30</f>
+        <v>2.1334417806666663</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32">
+        <f>SUM(B8,B9,B12,B10)</f>
+        <v>79</v>
+      </c>
+      <c r="C32">
+        <v>0.85</v>
+      </c>
+      <c r="D32" s="18">
+        <f>(0.00268222*(B32^2) - (0.775084*B32) + 104.714)*C32/30</f>
+        <v>1.7062928055666666</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33">
+        <v>100</v>
+      </c>
+      <c r="C33">
+        <f>C14</f>
+        <v>0.9</v>
+      </c>
+      <c r="D33" s="18">
+        <f t="shared" ref="D33:D34" si="2">(0.00268222*(B33^2) - (0.775084*B33) + 104.714)*C33/30</f>
+        <v>1.6208339999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34">
+        <v>100</v>
+      </c>
+      <c r="C34">
+        <f>C11</f>
+        <v>0.85</v>
+      </c>
+      <c r="D34" s="18">
+        <f t="shared" si="2"/>
+        <v>1.5307876666666664</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Fighting Lion Club Notes.xlsx
+++ b/Fighting Lion Club Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtmon\iCloudDrive\fighting-lion-club\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263A1EBE-22CA-4ED7-8DB5-DDC5ED9B8F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF18615E-E10C-48DC-9CF2-6B6A35B411A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{D2AF7772-B9F8-4918-951F-717FB2EC9AC0}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="90">
   <si>
     <t>no reserves</t>
   </si>
@@ -287,6 +287,24 @@
   </si>
   <si>
     <t>Post-Nerf</t>
+  </si>
+  <si>
+    <t>Reload stat</t>
+  </si>
+  <si>
+    <t>RDS</t>
+  </si>
+  <si>
+    <t>Combined Reload Stat</t>
+  </si>
+  <si>
+    <t>Best RDS</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Reduction</t>
   </si>
 </sst>
 </file>
@@ -369,7 +387,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -389,10 +407,11 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1727,11 +1746,11 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
-      <c r="B66" s="17" t="s">
+      <c r="B66" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3" t="s">
         <v>4</v>
@@ -1817,10 +1836,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0416AC-0BDD-4988-B94D-B887E18374C1}">
-  <dimension ref="A7:D34"/>
+  <dimension ref="A6:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1829,6 +1848,14 @@
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
+    </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>82</v>
@@ -1933,7 +1960,21 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>67</v>
       </c>
@@ -1944,12 +1985,15 @@
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="17">
         <f>(0.00268222*(B20^2) - (0.775084*B20) + 104.714)*C20/30</f>
         <v>2.3399365166666666</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>68</v>
       </c>
@@ -1961,12 +2005,16 @@
         <f>C7</f>
         <v>1</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="17">
         <f>(0.00268222*(B21^2) - (0.775084*B21) + 104.714)*C21/30</f>
         <v>1.9730786426666667</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="1">
+        <f>1-D21/$D$20</f>
+        <v>0.15678112264455946</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>69</v>
       </c>
@@ -1978,12 +2026,16 @@
         <f>C10</f>
         <v>0.85</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="17">
         <f>(0.00268222*(B22^2) - (0.775084*B22) + 104.714)*C22/30</f>
         <v>1.5897431589333335</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="1">
+        <f>1-D22/$D$20</f>
+        <v>0.32060414989463626</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -1995,12 +2047,16 @@
         <f>C20</f>
         <v>1</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="17">
         <f>(0.00268222*(B24^2) - (0.775084*B24) + 104.714)*C24/30</f>
         <v>3.2410460666666667</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="1">
+        <f>1-D24/$D$24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>68</v>
       </c>
@@ -2009,15 +2065,19 @@
         <v>37</v>
       </c>
       <c r="C25">
-        <f t="shared" ref="C25:C27" si="0">C21</f>
+        <f t="shared" ref="C25:C26" si="0">C21</f>
         <v>1</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="17">
         <f>(0.00268222*(B25^2) - (0.775084*B25) + 104.714)*C25/30</f>
         <v>2.656928372666667</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="1">
+        <f t="shared" ref="E25:E27" si="1">1-D25/$D$24</f>
+        <v>0.18022505141395595</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>69</v>
       </c>
@@ -2029,12 +2089,16 @@
         <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="17">
         <f>(0.00268222*(B26^2) - (0.775084*B26) + 104.714)*C26/30</f>
         <v>2.1026188194333333</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="1">
+        <f t="shared" si="1"/>
+        <v>0.35125302874950393</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>76</v>
       </c>
@@ -2045,12 +2109,16 @@
       <c r="C27">
         <v>0.85</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="17">
         <f>(0.00268222*(B27^2) - (0.775084*B27) + 104.714)*C27/30</f>
         <v>2.0304333882666667</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="1">
+        <f t="shared" si="1"/>
+        <v>0.37352529198854745</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>70</v>
       </c>
@@ -2060,12 +2128,16 @@
       <c r="C29">
         <v>1</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="17">
         <f>(0.00268222*(B29^2) - (0.775084*B29) + 104.714)*C29/30</f>
         <v>1.8009266666666666</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="1">
+        <f>1-D29/$D$24</f>
+        <v>0.44433783734555998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>71</v>
       </c>
@@ -2075,12 +2147,16 @@
       <c r="C30">
         <v>0.85</v>
       </c>
-      <c r="D30" s="18">
-        <f t="shared" ref="D30:D31" si="1">(0.00268222*(B30^2) - (0.775084*B30) + 104.714)*C30/30</f>
+      <c r="D30" s="17">
+        <f t="shared" ref="D30" si="2">(0.00268222*(B30^2) - (0.775084*B30) + 104.714)*C30/30</f>
         <v>1.5307876666666664</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="1">
+        <f t="shared" ref="E30:E34" si="3">1-D30/$D$24</f>
+        <v>0.52768716174372599</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>72</v>
       </c>
@@ -2091,12 +2167,16 @@
       <c r="C31">
         <v>1</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D31" s="17">
         <f>(0.00268222*(B31^2) - (0.775084*B31) + 104.714)*C31/30</f>
         <v>2.1334417806666663</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="1">
+        <f t="shared" si="3"/>
+        <v>0.34174283957004759</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>73</v>
       </c>
@@ -2107,12 +2187,16 @@
       <c r="C32">
         <v>0.85</v>
       </c>
-      <c r="D32" s="18">
+      <c r="D32" s="17">
         <f>(0.00268222*(B32^2) - (0.775084*B32) + 104.714)*C32/30</f>
         <v>1.7062928055666666</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="1">
+        <f t="shared" si="3"/>
+        <v>0.47353639211875032</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>74</v>
       </c>
@@ -2123,12 +2207,16 @@
         <f>C14</f>
         <v>0.9</v>
       </c>
-      <c r="D33" s="18">
-        <f t="shared" ref="D33:D34" si="2">(0.00268222*(B33^2) - (0.775084*B33) + 104.714)*C33/30</f>
+      <c r="D33" s="17">
+        <f t="shared" ref="D33:D34" si="4">(0.00268222*(B33^2) - (0.775084*B33) + 104.714)*C33/30</f>
         <v>1.6208339999999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="1">
+        <f t="shared" si="3"/>
+        <v>0.49990405361100398</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>75</v>
       </c>
@@ -2139,9 +2227,13 @@
         <f>C11</f>
         <v>0.85</v>
       </c>
-      <c r="D34" s="18">
-        <f t="shared" si="2"/>
+      <c r="D34" s="17">
+        <f t="shared" si="4"/>
         <v>1.5307876666666664</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="3"/>
+        <v>0.52768716174372599</v>
       </c>
     </row>
   </sheetData>

--- a/Fighting Lion Club Notes.xlsx
+++ b/Fighting Lion Club Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtmon\iCloudDrive\fighting-lion-club\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF18615E-E10C-48DC-9CF2-6B6A35B411A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9478296-7D41-4764-A4EB-DE4D91D0C63D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{D2AF7772-B9F8-4918-951F-717FB2EC9AC0}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="91">
   <si>
     <t>no reserves</t>
   </si>
@@ -305,6 +305,9 @@
   </si>
   <si>
     <t>Reduction</t>
+  </si>
+  <si>
+    <t>Cap</t>
   </si>
 </sst>
 </file>
@@ -408,10 +411,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1746,11 +1749,11 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
-      <c r="B66" s="18" t="s">
+      <c r="B66" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3" t="s">
         <v>4</v>
@@ -1836,10 +1839,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0416AC-0BDD-4988-B94D-B887E18374C1}">
-  <dimension ref="A6:E34"/>
+  <dimension ref="A6:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1989,7 +1992,7 @@
         <f>(0.00268222*(B20^2) - (0.775084*B20) + 104.714)*C20/30</f>
         <v>2.3399365166666666</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="18">
         <v>0</v>
       </c>
     </row>
@@ -2234,6 +2237,29 @@
       <c r="E34" s="1">
         <f t="shared" si="3"/>
         <v>0.52768716174372599</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D35" s="17"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36">
+        <v>100</v>
+      </c>
+      <c r="C36">
+        <v>0.83</v>
+      </c>
+      <c r="D36" s="17">
+        <f t="shared" ref="D36" si="5">(0.00268222*(B36^2) - (0.775084*B36) + 104.714)*C36/30</f>
+        <v>1.4947691333333331</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" ref="E36" si="6">1-D36/$D$24</f>
+        <v>0.53880040499681481</v>
       </c>
     </row>
   </sheetData>

--- a/Fighting Lion Club Notes.xlsx
+++ b/Fighting Lion Club Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtmon\iCloudDrive\fighting-lion-club\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9478296-7D41-4764-A4EB-DE4D91D0C63D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F18AA6-D8F0-4EF2-9EC4-6E74C2F5D4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{D2AF7772-B9F8-4918-951F-717FB2EC9AC0}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="93">
   <si>
     <t>no reserves</t>
   </si>
@@ -238,9 +238,6 @@
     <t>R value</t>
   </si>
   <si>
-    <t>No Masterwork</t>
-  </si>
-  <si>
     <t>Masterwork</t>
   </si>
   <si>
@@ -308,6 +305,15 @@
   </si>
   <si>
     <t>Cap</t>
+  </si>
+  <si>
+    <t>OG Base</t>
+  </si>
+  <si>
+    <t>OG Masterwork</t>
+  </si>
+  <si>
+    <t>OG Masterwork, 1x Loader</t>
   </si>
 </sst>
 </file>
@@ -1842,7 +1848,7 @@
   <dimension ref="A6:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1853,15 +1859,15 @@
   <sheetData>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" t="s">
         <v>84</v>
-      </c>
-      <c r="C6" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B7">
         <v>55</v>
@@ -1872,7 +1878,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -1883,7 +1889,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9">
         <v>27</v>
@@ -1894,7 +1900,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B10">
         <v>10</v>
@@ -1905,7 +1911,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B11">
         <v>15</v>
@@ -1916,7 +1922,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B12">
         <v>32</v>
@@ -1927,7 +1933,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13">
         <v>100</v>
@@ -1938,7 +1944,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B14">
         <v>100</v>
@@ -1949,7 +1955,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B15">
         <v>100</v>
@@ -1965,21 +1971,21 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" t="s">
         <v>86</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>87</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>88</v>
-      </c>
-      <c r="E19" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="B20">
         <f>B7</f>
@@ -1998,7 +2004,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="B21">
         <f>B7+B9</f>
@@ -2019,7 +2025,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="B22">
         <f>B21+B10</f>
@@ -2061,7 +2067,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B25">
         <f>B8+B9</f>
@@ -2082,7 +2088,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B26">
         <f>SUM(B8,B9,B10)</f>
@@ -2103,7 +2109,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B27">
         <f>B25+B11</f>
@@ -2123,7 +2129,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B29">
         <v>100</v>
@@ -2142,7 +2148,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B30">
         <v>100</v>
@@ -2161,7 +2167,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B31">
         <f>SUM(B8,B9,B12)</f>
@@ -2181,7 +2187,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B32">
         <f>SUM(B8,B9,B12,B10)</f>
@@ -2201,7 +2207,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B33">
         <v>100</v>
@@ -2221,7 +2227,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B34">
         <v>100</v>
@@ -2245,7 +2251,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B36">
         <v>100</v>

--- a/Fighting Lion Club Notes.xlsx
+++ b/Fighting Lion Club Notes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtmon\iCloudDrive\fighting-lion-club\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F18AA6-D8F0-4EF2-9EC4-6E74C2F5D4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2DEABD-7284-4240-9458-1A69DF960439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{D2AF7772-B9F8-4918-951F-717FB2EC9AC0}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="94">
   <si>
     <t>no reserves</t>
   </si>
@@ -314,6 +314,9 @@
   </si>
   <si>
     <t>OG Masterwork, 1x Loader</t>
+  </si>
+  <si>
+    <t>OG Masterwork, 1x Loader, Ophidian</t>
   </si>
 </sst>
 </file>
@@ -1845,10 +1848,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0416AC-0BDD-4988-B94D-B887E18374C1}">
-  <dimension ref="A6:E36"/>
+  <dimension ref="A6:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2044,227 +2047,246 @@
         <v>0.32060414989463626</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23">
+        <v>100</v>
+      </c>
+      <c r="C23">
+        <v>0.85</v>
+      </c>
+      <c r="D23" s="17">
+        <f>(0.00268222*(B23^2) - (0.775084*B23) + 104.714)*C23/30</f>
+        <v>1.5307876666666664</v>
+      </c>
+      <c r="E23" s="1">
+        <f>1-D23/$D$20</f>
+        <v>0.34579948824964923</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>6</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <f>B8</f>
         <v>10</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <f>C20</f>
         <v>1</v>
       </c>
-      <c r="D24" s="17">
-        <f>(0.00268222*(B24^2) - (0.775084*B24) + 104.714)*C24/30</f>
+      <c r="D25" s="17">
+        <f>(0.00268222*(B25^2) - (0.775084*B25) + 104.714)*C25/30</f>
         <v>3.2410460666666667</v>
       </c>
-      <c r="E24" s="1">
-        <f>1-D24/$D$24</f>
+      <c r="E25" s="1">
+        <f>1-D25/$D$25</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>67</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <f>B8+B9</f>
         <v>37</v>
       </c>
-      <c r="C25">
-        <f t="shared" ref="C25:C26" si="0">C21</f>
+      <c r="C26">
+        <f>C21</f>
         <v>1</v>
       </c>
-      <c r="D25" s="17">
-        <f>(0.00268222*(B25^2) - (0.775084*B25) + 104.714)*C25/30</f>
+      <c r="D26" s="17">
+        <f>(0.00268222*(B26^2) - (0.775084*B26) + 104.714)*C26/30</f>
         <v>2.656928372666667</v>
       </c>
-      <c r="E25" s="1">
-        <f t="shared" ref="E25:E27" si="1">1-D25/$D$24</f>
+      <c r="E26" s="1">
+        <f t="shared" ref="E26:E28" si="0">1-D26/$D$25</f>
         <v>0.18022505141395595</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>68</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <f>SUM(B8,B9,B10)</f>
         <v>47</v>
       </c>
-      <c r="C26">
-        <f t="shared" si="0"/>
-        <v>0.85</v>
-      </c>
-      <c r="D26" s="17">
-        <f>(0.00268222*(B26^2) - (0.775084*B26) + 104.714)*C26/30</f>
-        <v>2.1026188194333333</v>
-      </c>
-      <c r="E26" s="1">
-        <f t="shared" si="1"/>
-        <v>0.35125302874950393</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>75</v>
-      </c>
-      <c r="B27">
-        <f>B25+B11</f>
-        <v>52</v>
-      </c>
       <c r="C27">
+        <f>C22</f>
         <v>0.85</v>
       </c>
       <c r="D27" s="17">
         <f>(0.00268222*(B27^2) - (0.775084*B27) + 104.714)*C27/30</f>
+        <v>2.1026188194333333</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="0"/>
+        <v>0.35125302874950393</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28">
+        <f>B26+B11</f>
+        <v>52</v>
+      </c>
+      <c r="C28">
+        <v>0.85</v>
+      </c>
+      <c r="D28" s="17">
+        <f>(0.00268222*(B28^2) - (0.775084*B28) + 104.714)*C28/30</f>
         <v>2.0304333882666667</v>
       </c>
-      <c r="E27" s="1">
-        <f t="shared" si="1"/>
+      <c r="E28" s="1">
+        <f t="shared" si="0"/>
         <v>0.37352529198854745</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29">
-        <v>100</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29" s="17">
-        <f>(0.00268222*(B29^2) - (0.775084*B29) + 104.714)*C29/30</f>
-        <v>1.8009266666666666</v>
-      </c>
-      <c r="E29" s="1">
-        <f>1-D29/$D$24</f>
-        <v>0.44433783734555998</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B30">
         <v>100</v>
       </c>
       <c r="C30">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="D30" s="17">
-        <f t="shared" ref="D30" si="2">(0.00268222*(B30^2) - (0.775084*B30) + 104.714)*C30/30</f>
-        <v>1.5307876666666664</v>
+        <f>(0.00268222*(B30^2) - (0.775084*B30) + 104.714)*C30/30</f>
+        <v>1.8009266666666666</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" ref="E30:E34" si="3">1-D30/$D$24</f>
-        <v>0.52768716174372599</v>
+        <f>1-D30/$D$25</f>
+        <v>0.44433783734555998</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31">
+        <v>100</v>
+      </c>
+      <c r="C31">
+        <v>0.85</v>
+      </c>
+      <c r="D31" s="17">
+        <f t="shared" ref="D31" si="1">(0.00268222*(B31^2) - (0.775084*B31) + 104.714)*C31/30</f>
+        <v>1.5307876666666664</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" ref="E31:E35" si="2">1-D31/$D$25</f>
+        <v>0.52768716174372599</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>71</v>
       </c>
-      <c r="B31">
+      <c r="B32">
         <f>SUM(B8,B9,B12)</f>
         <v>69</v>
       </c>
-      <c r="C31">
+      <c r="C32">
         <v>1</v>
       </c>
-      <c r="D31" s="17">
-        <f>(0.00268222*(B31^2) - (0.775084*B31) + 104.714)*C31/30</f>
+      <c r="D32" s="17">
+        <f>(0.00268222*(B32^2) - (0.775084*B32) + 104.714)*C32/30</f>
         <v>2.1334417806666663</v>
       </c>
-      <c r="E31" s="1">
-        <f t="shared" si="3"/>
+      <c r="E32" s="1">
+        <f t="shared" si="2"/>
         <v>0.34174283957004759</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>72</v>
       </c>
-      <c r="B32">
+      <c r="B33">
         <f>SUM(B8,B9,B12,B10)</f>
         <v>79</v>
       </c>
-      <c r="C32">
+      <c r="C33">
         <v>0.85</v>
       </c>
-      <c r="D32" s="17">
-        <f>(0.00268222*(B32^2) - (0.775084*B32) + 104.714)*C32/30</f>
+      <c r="D33" s="17">
+        <f>(0.00268222*(B33^2) - (0.775084*B33) + 104.714)*C33/30</f>
         <v>1.7062928055666666</v>
       </c>
-      <c r="E32" s="1">
-        <f t="shared" si="3"/>
+      <c r="E33" s="1">
+        <f t="shared" si="2"/>
         <v>0.47353639211875032</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>73</v>
       </c>
-      <c r="B33">
+      <c r="B34">
         <v>100</v>
       </c>
-      <c r="C33">
+      <c r="C34">
         <f>C14</f>
         <v>0.9</v>
       </c>
-      <c r="D33" s="17">
-        <f t="shared" ref="D33:D34" si="4">(0.00268222*(B33^2) - (0.775084*B33) + 104.714)*C33/30</f>
+      <c r="D34" s="17">
+        <f t="shared" ref="D34:D35" si="3">(0.00268222*(B34^2) - (0.775084*B34) + 104.714)*C34/30</f>
         <v>1.6208339999999999</v>
       </c>
-      <c r="E33" s="1">
-        <f t="shared" si="3"/>
+      <c r="E34" s="1">
+        <f t="shared" si="2"/>
         <v>0.49990405361100398</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>74</v>
       </c>
-      <c r="B34">
+      <c r="B35">
         <v>100</v>
       </c>
-      <c r="C34">
+      <c r="C35">
         <f>C11</f>
         <v>0.85</v>
       </c>
-      <c r="D34" s="17">
-        <f t="shared" si="4"/>
+      <c r="D35" s="17">
+        <f t="shared" si="3"/>
         <v>1.5307876666666664</v>
       </c>
-      <c r="E34" s="1">
-        <f t="shared" si="3"/>
+      <c r="E35" s="1">
+        <f t="shared" si="2"/>
         <v>0.52768716174372599</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D35" s="17"/>
-      <c r="E35" s="1"/>
-    </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="D36" s="17"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>89</v>
       </c>
-      <c r="B36">
+      <c r="B37">
         <v>100</v>
       </c>
-      <c r="C36">
+      <c r="C37">
         <v>0.83</v>
       </c>
-      <c r="D36" s="17">
-        <f t="shared" ref="D36" si="5">(0.00268222*(B36^2) - (0.775084*B36) + 104.714)*C36/30</f>
+      <c r="D37" s="17">
+        <f t="shared" ref="D37" si="4">(0.00268222*(B37^2) - (0.775084*B37) + 104.714)*C37/30</f>
         <v>1.4947691333333331</v>
       </c>
-      <c r="E36" s="1">
-        <f t="shared" ref="E36" si="6">1-D36/$D$24</f>
+      <c r="E37" s="1">
+        <f t="shared" ref="E37" si="5">1-D37/$D$25</f>
         <v>0.53880040499681481</v>
       </c>
     </row>

--- a/Fighting Lion Club Notes.xlsx
+++ b/Fighting Lion Club Notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtmon\iCloudDrive\fighting-lion-club\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2DEABD-7284-4240-9458-1A69DF960439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E31A789-4949-4E1F-9D80-CFCAD085593F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{D2AF7772-B9F8-4918-951F-717FB2EC9AC0}"/>
+    <workbookView xWindow="-16350" yWindow="705" windowWidth="15645" windowHeight="14490" activeTab="1" xr2:uid="{D2AF7772-B9F8-4918-951F-717FB2EC9AC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1851,7 +1851,7 @@
   <dimension ref="A6:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Fighting Lion Club Notes.xlsx
+++ b/Fighting Lion Club Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtmon\iCloudDrive\fighting-lion-club\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E31A789-4949-4E1F-9D80-CFCAD085593F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59891126-0942-46EC-93D0-12E0631A30FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16350" yWindow="705" windowWidth="15645" windowHeight="14490" activeTab="1" xr2:uid="{D2AF7772-B9F8-4918-951F-717FB2EC9AC0}"/>
+    <workbookView xWindow="-16200" yWindow="705" windowWidth="15645" windowHeight="14490" activeTab="1" xr2:uid="{D2AF7772-B9F8-4918-951F-717FB2EC9AC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1850,8 +1850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0416AC-0BDD-4988-B94D-B887E18374C1}">
   <dimension ref="A6:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
